--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/20/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.4255</v>
+        <v>16.57179999999999</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.47069999999999</v>
+        <v>16.3245</v>
       </c>
     </row>
     <row r="5">
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.5699</v>
+        <v>-12.4878</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.8574</v>
+        <v>-12.04109999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.66930000000001</v>
+        <v>16.73930000000001</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.6223</v>
+        <v>-13.5049</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.33959999999999</v>
+        <v>16.34199999999999</v>
       </c>
     </row>
     <row r="27">
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.0105</v>
+        <v>-13.1464</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.36909999999999</v>
+        <v>-13.60909999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.21059999999999</v>
+        <v>-13.4591</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.35100000000001</v>
+        <v>16.31080000000001</v>
       </c>
     </row>
     <row r="32">
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.44040000000001</v>
+        <v>-13.1849</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.47730000000001</v>
+        <v>16.4552</v>
       </c>
     </row>
     <row r="36">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.86070000000001</v>
+        <v>-12.91230000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.68520000000001</v>
+        <v>16.71780000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.0085</v>
+        <v>-13.18990000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.48619999999999</v>
+        <v>16.50199999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.01100000000001</v>
+        <v>16.89820000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.49139999999999</v>
+        <v>16.6469</v>
       </c>
     </row>
     <row r="46">
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.43169999999999</v>
+        <v>-14.65899999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.2245</v>
+        <v>17.1777</v>
       </c>
     </row>
     <row r="53">
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.1728</v>
+        <v>-13.2802</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-14.06120000000001</v>
+        <v>-13.76590000000001</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.70059999999999</v>
+        <v>-12.61359999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.7135</v>
+        <v>16.75150000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.9646</v>
+        <v>-10.61120000000001</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.9122</v>
+        <v>-11.97099999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.9734</v>
+        <v>-11.6731</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.0238</v>
+        <v>-12.70290000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.6003</v>
+        <v>16.60779999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1845,13 +1845,13 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.0249</v>
+        <v>-13.573</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.7333</v>
+        <v>16.468</v>
       </c>
     </row>
     <row r="84">
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.95429999999999</v>
+        <v>-13.76569999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.2612</v>
+        <v>-10.2605</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.7786</v>
+        <v>-10.99540000000001</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.6263</v>
+        <v>-13.8509</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4777</v>
+        <v>16.4248</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.83399999999998</v>
+        <v>16.8481</v>
       </c>
     </row>
   </sheetData>
